--- a/data/trans_orig/Q4504_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q4504_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>83681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66993</v>
+        <v>68558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100496</v>
+        <v>102452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1693728772631742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1355956146138199</v>
+        <v>0.1387642380639827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2034064736480727</v>
+        <v>0.2073653812632965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -764,19 +764,19 @@
         <v>95975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80461</v>
+        <v>80756</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115518</v>
+        <v>115557</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2052990100262314</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1721130530379279</v>
+        <v>0.1727446739612308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2471028703010695</v>
+        <v>0.2471869217229886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -785,19 +785,19 @@
         <v>179656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157830</v>
+        <v>157260</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>204147</v>
+        <v>203464</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1868394921002135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1641409800737206</v>
+        <v>0.1635474629869235</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2123092269846015</v>
+        <v>0.2115991364414641</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>127431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111226</v>
+        <v>111505</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147525</v>
+        <v>149134</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2579247131331983</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2251241573995444</v>
+        <v>0.2256890064679326</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.298593941954205</v>
+        <v>0.301852444343211</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -835,19 +835,19 @@
         <v>114244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98664</v>
+        <v>94885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>134005</v>
+        <v>131445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2443773128296661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2110499415061618</v>
+        <v>0.2029680919615781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2866490516618305</v>
+        <v>0.2811729805890446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -856,19 +856,19 @@
         <v>241675</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>215889</v>
+        <v>216733</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>266096</v>
+        <v>269074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2513382201002407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2245213727904268</v>
+        <v>0.2253988184668077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.276735822592455</v>
+        <v>0.2798330656617894</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>158918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>139806</v>
+        <v>140373</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>180818</v>
+        <v>181223</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3216553463054156</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.282971885982503</v>
+        <v>0.2841198634506669</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3659812868178403</v>
+        <v>0.3668004213626695</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>156</v>
@@ -906,19 +906,19 @@
         <v>145849</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127295</v>
+        <v>127769</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>166015</v>
+        <v>166153</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3119844344067947</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2722958512007702</v>
+        <v>0.2733089573421649</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3551210417769839</v>
+        <v>0.3554163206810753</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>319</v>
@@ -927,19 +927,19 @@
         <v>304768</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>277852</v>
+        <v>279990</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>333229</v>
+        <v>333565</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3169535295423865</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.288961835717154</v>
+        <v>0.2911857139397202</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3465531839537451</v>
+        <v>0.3469026200086363</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>43231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32764</v>
+        <v>31439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58051</v>
+        <v>56739</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08750006581430607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06631625335447076</v>
+        <v>0.06363314289021427</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1174962541307531</v>
+        <v>0.1148409518391995</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -977,19 +977,19 @@
         <v>37256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26880</v>
+        <v>27348</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50422</v>
+        <v>49002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07969382027542563</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05749929297797315</v>
+        <v>0.05849979144761092</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1078574503596892</v>
+        <v>0.1048195452019575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -998,19 +998,19 @@
         <v>80487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64958</v>
+        <v>64217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97835</v>
+        <v>98783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08370481501316257</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06755545374655882</v>
+        <v>0.0667845747839159</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1017469862447112</v>
+        <v>0.1027327637774783</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>80803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64987</v>
+        <v>63827</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96990</v>
+        <v>97990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1635469974839058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1315359089877229</v>
+        <v>0.1291884327564506</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1963105636329326</v>
+        <v>0.1983342205330755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -1048,19 +1048,19 @@
         <v>74165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59314</v>
+        <v>60373</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90902</v>
+        <v>91275</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1586454224618822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1268787089146837</v>
+        <v>0.1291432483840144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1944471648115462</v>
+        <v>0.1952449329577745</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>156</v>
@@ -1069,19 +1069,19 @@
         <v>154968</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134063</v>
+        <v>133856</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>180010</v>
+        <v>179979</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1611639432439968</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1394236392521945</v>
+        <v>0.1392082518259238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1872072692746838</v>
+        <v>0.1871758226961557</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>118928</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100743</v>
+        <v>99182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141730</v>
+        <v>141336</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1619280611507316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.137167210829092</v>
+        <v>0.1350420301886922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1929735921086479</v>
+        <v>0.1924375386144383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1194,19 +1194,19 @@
         <v>122051</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103593</v>
+        <v>103174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142950</v>
+        <v>143120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1951276525492252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1656181771707005</v>
+        <v>0.1649479149572037</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2285388693182684</v>
+        <v>0.2288104835746914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>226</v>
@@ -1215,19 +1215,19 @@
         <v>240980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>213274</v>
+        <v>214261</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>270693</v>
+        <v>272079</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1771978922629124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1568251335008697</v>
+        <v>0.1575509108218624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1990467497512845</v>
+        <v>0.2000663489122602</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>198104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>174629</v>
+        <v>174053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224294</v>
+        <v>221585</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2697299712942234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2377672177767966</v>
+        <v>0.2369834634381403</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3053891270282607</v>
+        <v>0.3017017317440404</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -1265,19 +1265,19 @@
         <v>178319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155152</v>
+        <v>156073</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200338</v>
+        <v>202001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2850845465657922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2480466052595745</v>
+        <v>0.249519022380263</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3202877824701589</v>
+        <v>0.3229469064615105</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>364</v>
@@ -1286,19 +1286,19 @@
         <v>376422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>342589</v>
+        <v>342819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>408619</v>
+        <v>410022</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2767921597525657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2519135808228462</v>
+        <v>0.2520831151175489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3004672796741689</v>
+        <v>0.3014986126690248</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>274332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>247054</v>
+        <v>246967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>301243</v>
+        <v>299227</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.37351870417852</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3363792524834597</v>
+        <v>0.3362597351525404</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4101603255696647</v>
+        <v>0.4074154067231576</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>187</v>
@@ -1336,19 +1336,19 @@
         <v>197694</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>176099</v>
+        <v>173682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>222031</v>
+        <v>220062</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3160611697357194</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2815351596397994</v>
+        <v>0.2776711484349993</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3549692822693229</v>
+        <v>0.3518206803240475</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>447</v>
@@ -1357,19 +1357,19 @@
         <v>472026</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>437695</v>
+        <v>438614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>507789</v>
+        <v>505684</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3470916666727606</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3218471202894848</v>
+        <v>0.3225233087073976</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.373389359023939</v>
+        <v>0.3718412850885461</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>48796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36756</v>
+        <v>36499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64091</v>
+        <v>64907</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06643864385437415</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05004586952151942</v>
+        <v>0.04969538167992445</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08726405072370262</v>
+        <v>0.08837505708272646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1407,19 +1407,19 @@
         <v>45089</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32556</v>
+        <v>31557</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60567</v>
+        <v>61661</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07208571387425093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0520491559218051</v>
+        <v>0.05045095636681979</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09683098519282429</v>
+        <v>0.09858033673120389</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -1428,19 +1428,19 @@
         <v>93885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75029</v>
+        <v>75947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114512</v>
+        <v>116035</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06903595911790147</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05517049622034347</v>
+        <v>0.05584558630918379</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0842035721787965</v>
+        <v>0.08532323880421308</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>94292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75801</v>
+        <v>77677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112965</v>
+        <v>113635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1283846195221509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1032071110806621</v>
+        <v>0.1057618698849975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1538081554833699</v>
+        <v>0.1547202050730849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1478,19 +1478,19 @@
         <v>82341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67049</v>
+        <v>67549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100938</v>
+        <v>99411</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1316409172750122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1071937240515082</v>
+        <v>0.1079922641380611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1613733875289246</v>
+        <v>0.1589313623942235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -1499,19 +1499,19 @@
         <v>176633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>152961</v>
+        <v>152985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>204613</v>
+        <v>203337</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1298823221938598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1124754577619825</v>
+        <v>0.1124931111482753</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.15045701178143</v>
+        <v>0.1495182546545248</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>134412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113034</v>
+        <v>112722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155997</v>
+        <v>156338</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2107928192425732</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1772667587681507</v>
+        <v>0.1767773385972243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2446443125174386</v>
+        <v>0.2451794944857797</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -1624,19 +1624,19 @@
         <v>156809</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>133823</v>
+        <v>137908</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180047</v>
+        <v>180658</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2273438331452676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1940180738518014</v>
+        <v>0.1999413471908667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2610347870826991</v>
+        <v>0.2619197387825233</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>271</v>
@@ -1645,19 +1645,19 @@
         <v>291221</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259599</v>
+        <v>261998</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>321800</v>
+        <v>327424</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2193931064213356</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1955706620096243</v>
+        <v>0.1973776057522775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2424297027079038</v>
+        <v>0.2466668850692608</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>163260</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>138406</v>
+        <v>143744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185060</v>
+        <v>188592</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2560341078250172</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2170569556678441</v>
+        <v>0.2254285864662578</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2902228879724947</v>
+        <v>0.2957615922532379</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -1695,19 +1695,19 @@
         <v>144010</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122879</v>
+        <v>124939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166738</v>
+        <v>167546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2087877786317831</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.178151281389737</v>
+        <v>0.1811382196470676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2417395606582408</v>
+        <v>0.2429097492256281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>300</v>
@@ -1716,19 +1716,19 @@
         <v>307270</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>279082</v>
+        <v>278036</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>345232</v>
+        <v>339554</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2314838294195347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.210247689112267</v>
+        <v>0.2094597029284114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2600825727652911</v>
+        <v>0.2558052047192512</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>205494</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>181028</v>
+        <v>180779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>228488</v>
+        <v>228743</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3222686057278032</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2838994144748156</v>
+        <v>0.2835088206774715</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3583281940343727</v>
+        <v>0.3587287850706114</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>226</v>
@@ -1766,19 +1766,19 @@
         <v>235577</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>208533</v>
+        <v>210926</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>261820</v>
+        <v>261463</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3415426863768562</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3023343740859312</v>
+        <v>0.305802765764716</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3795895694307329</v>
+        <v>0.3790727494915456</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>425</v>
@@ -1787,19 +1787,19 @@
         <v>441072</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>408101</v>
+        <v>408739</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>476332</v>
+        <v>476717</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3322838609661242</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3074454660788002</v>
+        <v>0.3079261779816833</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3588476333262145</v>
+        <v>0.3591376325293523</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>43629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32894</v>
+        <v>31648</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58377</v>
+        <v>57432</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06842104269527854</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0515864660440512</v>
+        <v>0.04963214759101565</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0915500123514377</v>
+        <v>0.09006759552734912</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1837,19 +1837,19 @@
         <v>45327</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33756</v>
+        <v>33600</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59417</v>
+        <v>60411</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06571596730021668</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0489392752691288</v>
+        <v>0.04871320250963521</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08614343320351335</v>
+        <v>0.08758396030112975</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -1858,19 +1858,19 @@
         <v>88956</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72120</v>
+        <v>72913</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107297</v>
+        <v>108909</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06701542335530876</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05433239517286281</v>
+        <v>0.05492919887373422</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08083253578599142</v>
+        <v>0.08204746224836669</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>90854</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73383</v>
+        <v>73912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>109377</v>
+        <v>111250</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1424834245093279</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1150834585772991</v>
+        <v>0.1159137114856644</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1715314176330975</v>
+        <v>0.1744686121204565</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -1908,19 +1908,19 @@
         <v>108021</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89931</v>
+        <v>90144</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>130447</v>
+        <v>129738</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1566097345458765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1303833473933605</v>
+        <v>0.1306918141085661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1891238493789028</v>
+        <v>0.1880957430361721</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>187</v>
@@ -1929,19 +1929,19 @@
         <v>198875</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>174829</v>
+        <v>173391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>225450</v>
+        <v>228331</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1498237798376968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1317080740697164</v>
+        <v>0.1306251596564986</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1698443237236265</v>
+        <v>0.1720141863392405</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>85166</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69932</v>
+        <v>69446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>104035</v>
+        <v>104315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1640504931959461</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1347054914441177</v>
+        <v>0.1337689783396624</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2003968166657177</v>
+        <v>0.2009347476540354</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -2054,19 +2054,19 @@
         <v>94611</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77082</v>
+        <v>78344</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>114585</v>
+        <v>114999</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1838544911757447</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.149791246260389</v>
+        <v>0.1522427355269536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2226680879732274</v>
+        <v>0.2234731051629369</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -2075,19 +2075,19 @@
         <v>179778</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>155912</v>
+        <v>157283</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204302</v>
+        <v>206873</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1739089292707655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1508221437756621</v>
+        <v>0.1521482780684987</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1976325635941466</v>
+        <v>0.2001193237070723</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>121114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101957</v>
+        <v>100634</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>141354</v>
+        <v>141251</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2332950260288874</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1963935076894844</v>
+        <v>0.1938454498028828</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2722806196581241</v>
+        <v>0.2720836764453148</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>101</v>
@@ -2125,19 +2125,19 @@
         <v>107063</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88516</v>
+        <v>89856</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>125707</v>
+        <v>129023</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2080517289274147</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1720087843058311</v>
+        <v>0.1746134148476556</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2442818576873407</v>
+        <v>0.2507252072397873</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>213</v>
@@ -2146,19 +2146,19 @@
         <v>228178</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>204277</v>
+        <v>200512</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>256086</v>
+        <v>254937</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2207289052361872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1976087282278751</v>
+        <v>0.1939665133319454</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2477259156799502</v>
+        <v>0.2466143998473868</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>147808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126081</v>
+        <v>123843</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>169346</v>
+        <v>167600</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2847132871383074</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2428612530340152</v>
+        <v>0.2385501295984456</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3261996238979675</v>
+        <v>0.3228377593976806</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -2196,19 +2196,19 @@
         <v>136737</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>119441</v>
+        <v>116206</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>157773</v>
+        <v>155559</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2657164133416077</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2321040751751056</v>
+        <v>0.225818295790234</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3065940144321053</v>
+        <v>0.3022916186840423</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>274</v>
@@ -2217,19 +2217,19 @@
         <v>284545</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>258406</v>
+        <v>257509</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>314484</v>
+        <v>316955</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2752566377214972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2499700155973208</v>
+        <v>0.2491031640737859</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3042174351746871</v>
+        <v>0.3066083784512042</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>47083</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35362</v>
+        <v>34924</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63443</v>
+        <v>61834</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09069361988448206</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06811621932908984</v>
+        <v>0.06727121220789671</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1222053817931062</v>
+        <v>0.1191061202488448</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2267,19 +2267,19 @@
         <v>47439</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35384</v>
+        <v>35475</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61803</v>
+        <v>60631</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09218677265878379</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06876043872628577</v>
+        <v>0.068937000955824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1200990746901238</v>
+        <v>0.117822186390499</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -2288,19 +2288,19 @@
         <v>94523</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76330</v>
+        <v>76245</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114434</v>
+        <v>113130</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09143691177889693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07383791404474364</v>
+        <v>0.07375569638792666</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1106987613433135</v>
+        <v>0.1094372626804994</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>117975</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98748</v>
+        <v>99286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>138615</v>
+        <v>139810</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.227247573752377</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1902121029345873</v>
+        <v>0.1912491757701574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2670050179807187</v>
+        <v>0.2693066819557561</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>128</v>
@@ -2338,19 +2338,19 @@
         <v>128748</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110316</v>
+        <v>108557</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148940</v>
+        <v>148188</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.250190593896449</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2143725550646114</v>
+        <v>0.2109540618157687</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2894285623859115</v>
+        <v>0.2879670879979483</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>239</v>
@@ -2359,19 +2359,19 @@
         <v>246723</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>220077</v>
+        <v>219919</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>272463</v>
+        <v>273689</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2386686159926533</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2128923334803134</v>
+        <v>0.212739566871606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2635687870341119</v>
+        <v>0.2647548600323008</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>52850</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>40844</v>
+        <v>39048</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68247</v>
+        <v>67113</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1366665721283175</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1056198992490066</v>
+        <v>0.1009742744443366</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1764816646474303</v>
+        <v>0.1735484051236887</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -2484,19 +2484,19 @@
         <v>60177</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45965</v>
+        <v>45207</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74980</v>
+        <v>75269</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1497298727465071</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1143694845333194</v>
+        <v>0.1124824755705583</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1865644628531728</v>
+        <v>0.187281775883059</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>108</v>
@@ -2505,19 +2505,19 @@
         <v>113027</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>96139</v>
+        <v>93559</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>135044</v>
+        <v>133212</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1433240394083535</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1219089926117479</v>
+        <v>0.1186381418148906</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1712432652483301</v>
+        <v>0.1689201641841323</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>54922</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>42091</v>
+        <v>42778</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>70439</v>
+        <v>70266</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1420248105202759</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1088427383696468</v>
+        <v>0.1106194690917305</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1821498944782161</v>
+        <v>0.18170114911105</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>53</v>
@@ -2555,19 +2555,19 @@
         <v>54557</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>41726</v>
+        <v>41113</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68612</v>
+        <v>68978</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1357475837905494</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1038226663609824</v>
+        <v>0.1022972968471858</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1707187795277821</v>
+        <v>0.1716293589922232</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>110</v>
@@ -2576,19 +2576,19 @@
         <v>109480</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>90829</v>
+        <v>90547</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>128745</v>
+        <v>127710</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1388257391076245</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1151763207374607</v>
+        <v>0.1148177010937693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1632555158705266</v>
+        <v>0.1619427915472883</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>89083</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>74105</v>
+        <v>73059</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>107482</v>
+        <v>106232</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2303612061665371</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1916293482586956</v>
+        <v>0.1889257060133875</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2779405412021742</v>
+        <v>0.2747072949314147</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>81</v>
@@ -2626,19 +2626,19 @@
         <v>83572</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>68377</v>
+        <v>66657</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>100260</v>
+        <v>99089</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2079424768683999</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1701332241115632</v>
+        <v>0.1658552178067595</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.249463971533818</v>
+        <v>0.2465513161506323</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>170</v>
@@ -2647,19 +2647,19 @@
         <v>172655</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>152327</v>
+        <v>149533</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>196764</v>
+        <v>198722</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2189359193171697</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1931579711306608</v>
+        <v>0.1896152828949254</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2495064271610585</v>
+        <v>0.2519900240674541</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>38507</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28304</v>
+        <v>28795</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50357</v>
+        <v>50264</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09957672182045101</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07319067602036941</v>
+        <v>0.07446189158037751</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1302195882563957</v>
+        <v>0.1299782057075982</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -2697,19 +2697,19 @@
         <v>48011</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36028</v>
+        <v>36099</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>61008</v>
+        <v>61261</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1194603157021019</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08964338175526443</v>
+        <v>0.08982002805136821</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.151798805844051</v>
+        <v>0.1524278870550159</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>89</v>
@@ -2718,19 +2718,19 @@
         <v>86519</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>70554</v>
+        <v>70479</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>106227</v>
+        <v>104116</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1097100242334947</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08946556800827322</v>
+        <v>0.08937067790868683</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1347012066586226</v>
+        <v>0.1320248210338064</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>151347</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>130765</v>
+        <v>132316</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>170367</v>
+        <v>170512</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3913706893644185</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3381462130873022</v>
+        <v>0.3421569712463068</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4405552407939451</v>
+        <v>0.4409306497131133</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>155</v>
@@ -2768,19 +2768,19 @@
         <v>155584</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>136413</v>
+        <v>137188</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>175865</v>
+        <v>173255</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3871197508924417</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3394198356804163</v>
+        <v>0.341348735259797</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4375819661362684</v>
+        <v>0.4310885983489321</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>309</v>
@@ -2789,19 +2789,19 @@
         <v>306931</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>280137</v>
+        <v>281963</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>332081</v>
+        <v>335005</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3892042779333575</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3552278180501175</v>
+        <v>0.3575432327900835</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.421096315069488</v>
+        <v>0.4248040679601079</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>43973</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32056</v>
+        <v>33842</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>57095</v>
+        <v>57556</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1502916498800412</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1095625628552418</v>
+        <v>0.1156648854572151</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1951405855828594</v>
+        <v>0.1967158093073671</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -2914,19 +2914,19 @@
         <v>36793</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>26657</v>
+        <v>27321</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>48535</v>
+        <v>49257</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1072898484057431</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07773282024213143</v>
+        <v>0.07966812685078782</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1415284492214559</v>
+        <v>0.1436346967461611</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>83</v>
@@ -2935,19 +2935,19 @@
         <v>80766</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>64532</v>
+        <v>66058</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>99277</v>
+        <v>98529</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1270872670512068</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1015422346561941</v>
+        <v>0.1039440636560877</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1562151236757483</v>
+        <v>0.1550380570066542</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>23985</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16031</v>
+        <v>15416</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>34996</v>
+        <v>34412</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08197780122962442</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05479029457320669</v>
+        <v>0.05269087510718594</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1196119789664823</v>
+        <v>0.117614283086126</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>26</v>
@@ -2985,19 +2985,19 @@
         <v>24661</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16188</v>
+        <v>16952</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>34793</v>
+        <v>34581</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07191211186151593</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04720459730072164</v>
+        <v>0.04943236324096049</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1014576513191615</v>
+        <v>0.1008384496131561</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>50</v>
@@ -3006,19 +3006,19 @@
         <v>48646</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>36297</v>
+        <v>36280</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>62744</v>
+        <v>63602</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07654621228390736</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05711484170518584</v>
+        <v>0.05708803422879078</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09872971824007228</v>
+        <v>0.1000790670309629</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>47557</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36739</v>
+        <v>36386</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>60917</v>
+        <v>60801</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1625434430686851</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1255676997088357</v>
+        <v>0.124359752901996</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.208205173389031</v>
+        <v>0.2078066042860588</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>56</v>
@@ -3056,19 +3056,19 @@
         <v>51248</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>38758</v>
+        <v>40648</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>63539</v>
+        <v>64025</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1494404308139284</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1130177089696462</v>
+        <v>0.1185286474472751</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1852818156843353</v>
+        <v>0.1866966588019381</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>105</v>
@@ -3077,19 +3077,19 @@
         <v>98806</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>81492</v>
+        <v>82027</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>117605</v>
+        <v>116494</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1554728715543264</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.128228690470285</v>
+        <v>0.1290706967373528</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1850534710472892</v>
+        <v>0.1833054212553412</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>23343</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14847</v>
+        <v>15541</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32678</v>
+        <v>32721</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07978099473572291</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05074317281437985</v>
+        <v>0.05311530042845917</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1116867208949014</v>
+        <v>0.1118352201534369</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>39</v>
@@ -3127,19 +3127,19 @@
         <v>35880</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>25173</v>
+        <v>26218</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>46232</v>
+        <v>48259</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1046256348146249</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07340503134295302</v>
+        <v>0.07645231592084592</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1348137703144087</v>
+        <v>0.1407247938882205</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>65</v>
@@ -3148,19 +3148,19 @@
         <v>59222</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>46958</v>
+        <v>46165</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>74308</v>
+        <v>74738</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09318751538998006</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07388960627296193</v>
+        <v>0.07264093738832152</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1169251575630278</v>
+        <v>0.1176017560259271</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>153725</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>137605</v>
+        <v>136515</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>169786</v>
+        <v>169601</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5254061110859265</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4703119493526869</v>
+        <v>0.4665868888920963</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5802996111628572</v>
+        <v>0.5796682235426945</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>211</v>
@@ -3198,19 +3198,19 @@
         <v>194352</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>176999</v>
+        <v>176368</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>211992</v>
+        <v>210204</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5667319741041876</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5161319084779693</v>
+        <v>0.5142906553300678</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6181709775964951</v>
+        <v>0.6129579542932988</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>371</v>
@@ -3219,19 +3219,19 @@
         <v>348077</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>325574</v>
+        <v>322319</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>373070</v>
+        <v>372172</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5477061337205794</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5122976453536149</v>
+        <v>0.5071761946519382</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5870338966486658</v>
+        <v>0.5856207410776455</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>19935</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12369</v>
+        <v>13397</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>29574</v>
+        <v>29732</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09538858075548499</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05918469067505852</v>
+        <v>0.06410677032583538</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1415133957471691</v>
+        <v>0.1422694733961704</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>27</v>
@@ -3344,19 +3344,19 @@
         <v>31806</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>22050</v>
+        <v>22269</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>44049</v>
+        <v>45524</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09560716673447342</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06627908855803663</v>
+        <v>0.06693812529589403</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1324064859747537</v>
+        <v>0.1368413742739592</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>48</v>
@@ -3365,19 +3365,19 @@
         <v>51741</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>38418</v>
+        <v>38491</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>66834</v>
+        <v>66935</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09552283097872291</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07092509199611027</v>
+        <v>0.0710598364768855</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1233860034556216</v>
+        <v>0.123573505390847</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>10198</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5152</v>
+        <v>5015</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18382</v>
+        <v>17384</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0487982284939485</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02465085365418798</v>
+        <v>0.02399832533050087</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0879578710998884</v>
+        <v>0.08318423846421895</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -3415,19 +3415,19 @@
         <v>6649</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2329</v>
+        <v>2335</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13648</v>
+        <v>13784</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0199865415073203</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007000358531408938</v>
+        <v>0.00701780683576585</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04102529734384217</v>
+        <v>0.04143236861738799</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>16</v>
@@ -3436,19 +3436,19 @@
         <v>16847</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10045</v>
+        <v>9814</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>26465</v>
+        <v>27333</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03110278696692917</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01854402382599583</v>
+        <v>0.01811880025612607</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04885861783938836</v>
+        <v>0.05046055118295009</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>18501</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11724</v>
+        <v>11360</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>28106</v>
+        <v>27802</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08852690787134006</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05609779418137108</v>
+        <v>0.05435560623870282</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1344886504004554</v>
+        <v>0.1330312796330664</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>13</v>
@@ -3486,19 +3486,19 @@
         <v>14911</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>8661</v>
+        <v>8183</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>24009</v>
+        <v>24331</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04481994972631514</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02603364217554836</v>
+        <v>0.02459831206560977</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07216892477280486</v>
+        <v>0.07313677988086169</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>33</v>
@@ -3507,19 +3507,19 @@
         <v>33412</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>23481</v>
+        <v>23392</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>46738</v>
+        <v>46352</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06168315094248965</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0433506397885729</v>
+        <v>0.04318555428741556</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08628673251194753</v>
+        <v>0.08557405066040311</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>15392</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>9087</v>
+        <v>9331</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>23318</v>
+        <v>24083</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07365259589723901</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04348074349581635</v>
+        <v>0.04465076200094912</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.111575726159181</v>
+        <v>0.1152357114375877</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>17</v>
@@ -3557,19 +3557,19 @@
         <v>19190</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>11461</v>
+        <v>12081</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>30119</v>
+        <v>30682</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05768458557454934</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03445209036065919</v>
+        <v>0.03631334608562692</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09053634183610311</v>
+        <v>0.09222695200243798</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>34</v>
@@ -3578,19 +3578,19 @@
         <v>34583</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>24729</v>
+        <v>25224</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>47636</v>
+        <v>48505</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.06384543003780371</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0456546152880964</v>
+        <v>0.04656699999125773</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08794300123963827</v>
+        <v>0.08954847508085881</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>144960</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>131821</v>
+        <v>131499</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>157112</v>
+        <v>157280</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6936336869819875</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6307610255057936</v>
+        <v>0.6292205364675268</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7517805229345681</v>
+        <v>0.7525816887884873</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>226</v>
@@ -3628,19 +3628,19 @@
         <v>260121</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>244155</v>
+        <v>243055</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>275059</v>
+        <v>274159</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7819017564573418</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7339108032059624</v>
+        <v>0.7306033931643244</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8268042002315787</v>
+        <v>0.8241007239887932</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>377</v>
@@ -3649,19 +3649,19 @@
         <v>405081</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>384762</v>
+        <v>383456</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>423926</v>
+        <v>425118</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7478458010740545</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7103340854276462</v>
+        <v>0.7079216335545904</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7826357880562371</v>
+        <v>0.7848364693422013</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>538946</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>493207</v>
+        <v>497650</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>585137</v>
+        <v>584619</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1646343429862602</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1506623959640617</v>
+        <v>0.1520195665891612</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1787446296210097</v>
+        <v>0.1785864470509761</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>573</v>
@@ -3774,19 +3774,19 @@
         <v>598223</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>551506</v>
+        <v>552866</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>640401</v>
+        <v>641057</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1772597150113147</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1634170545988724</v>
+        <v>0.1638200389919868</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1897576831616617</v>
+        <v>0.189952036538208</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1086</v>
@@ -3795,19 +3795,19 @@
         <v>1137169</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1073009</v>
+        <v>1081305</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1202181</v>
+        <v>1205856</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.17104316203509</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1613928857028223</v>
+        <v>0.162640628267027</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.180821722234839</v>
+        <v>0.1813745638805718</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>699015</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>654235</v>
+        <v>651895</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>745577</v>
+        <v>744415</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2135315655955177</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1998524352929617</v>
+        <v>0.1991375546098659</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2277549912145411</v>
+        <v>0.2274000544981993</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>613</v>
@@ -3845,19 +3845,19 @@
         <v>629503</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>588206</v>
+        <v>587722</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>679890</v>
+        <v>677428</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1865283480379165</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1742917212018835</v>
+        <v>0.1741483287074751</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2014584640586563</v>
+        <v>0.2007290196185448</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1306</v>
@@ -3866,19 +3866,19 @@
         <v>1328518</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1261865</v>
+        <v>1266827</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1388380</v>
+        <v>1398619</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1998243469314321</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1897989762882079</v>
+        <v>0.1905452000985041</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2088282313159887</v>
+        <v>0.2103683508142682</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>941694</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>887937</v>
+        <v>891015</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>994143</v>
+        <v>994129</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2876636855012787</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.271242328991928</v>
+        <v>0.2721826881450262</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.303685770985393</v>
+        <v>0.3036814559788273</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>854</v>
@@ -3916,19 +3916,19 @@
         <v>865589</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>814609</v>
+        <v>817275</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>918157</v>
+        <v>916881</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2564831653994213</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2413772389163388</v>
+        <v>0.2421672316419511</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2720596914688882</v>
+        <v>0.271681344445668</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1773</v>
@@ -3937,19 +3937,19 @@
         <v>1807283</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1738665</v>
+        <v>1733034</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1881904</v>
+        <v>1878748</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2718360084407809</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.261515133184835</v>
+        <v>0.2606681113836883</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2830598992853187</v>
+        <v>0.2825851174573193</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>259981</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>230240</v>
+        <v>228589</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>292714</v>
+        <v>291146</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.07941761500489396</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.07033267861131454</v>
+        <v>0.06982813243014381</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08941669641593165</v>
+        <v>0.08893783391211622</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>274</v>
@@ -3987,19 +3987,19 @@
         <v>278193</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>247744</v>
+        <v>248237</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>311215</v>
+        <v>310843</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08243145639437158</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.07340901281700817</v>
+        <v>0.073555355684101</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09221629063709896</v>
+        <v>0.09210612798457236</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>528</v>
@@ -4008,19 +4008,19 @@
         <v>538174</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>491187</v>
+        <v>497383</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>582111</v>
+        <v>582144</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.08094748391241652</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.07388010983874295</v>
+        <v>0.07481215764990927</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08755609965993812</v>
+        <v>0.08756104186625385</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>833957</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>782822</v>
+        <v>786951</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>887269</v>
+        <v>880013</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2547527909120494</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2391325677152694</v>
+        <v>0.2403938753001612</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2710383277379343</v>
+        <v>0.268821895803565</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>979</v>
@@ -4058,19 +4058,19 @@
         <v>1003330</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>952820</v>
+        <v>951719</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1058658</v>
+        <v>1054788</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.297297315156976</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2823304767812121</v>
+        <v>0.2820043790247586</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3136915017433088</v>
+        <v>0.3125446415242165</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1811</v>
@@ -4079,19 +4079,19 @@
         <v>1837287</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1766154</v>
+        <v>1763131</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1914324</v>
+        <v>1905916</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2763489986802805</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2656497779222571</v>
+        <v>0.2651950322568905</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2879361565293871</v>
+        <v>0.2866715569589028</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>111446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93677</v>
+        <v>93955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131467</v>
+        <v>131532</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2458898028907524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2066848998368318</v>
+        <v>0.2072984146210072</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2900627659257308</v>
+        <v>0.2902067417017925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -4447,19 +4447,19 @@
         <v>105319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87708</v>
+        <v>88140</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123371</v>
+        <v>123784</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2453836377158851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2043514191318089</v>
+        <v>0.2053571438335975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2874433575989481</v>
+        <v>0.2884043687889094</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>212</v>
@@ -4468,19 +4468,19 @@
         <v>216765</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>191245</v>
+        <v>192902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>241214</v>
+        <v>246357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2456436131726141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.216723515737535</v>
+        <v>0.2186015851181528</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2733501177585218</v>
+        <v>0.2791778800707207</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>104112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87048</v>
+        <v>85798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124028</v>
+        <v>121760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2297082588398671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1920595571552766</v>
+        <v>0.1893012022138239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2736511245542428</v>
+        <v>0.2686463414449672</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -4518,19 +4518,19 @@
         <v>131372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112536</v>
+        <v>113283</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150672</v>
+        <v>152284</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3060834426484508</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2621976394726259</v>
+        <v>0.2639396777502125</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.351051129887033</v>
+        <v>0.3548075991189217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>232</v>
@@ -4539,19 +4539,19 @@
         <v>235483</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>211060</v>
+        <v>209990</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263378</v>
+        <v>265548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2668557867778004</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2391780659590174</v>
+        <v>0.237966420338192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2984666467577341</v>
+        <v>0.3009261516751132</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>110770</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93755</v>
+        <v>93971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129860</v>
+        <v>132176</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2443981319225784</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2068572571586295</v>
+        <v>0.2073337190923392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.286517032668071</v>
+        <v>0.2916276050471409</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -4589,19 +4589,19 @@
         <v>101582</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85743</v>
+        <v>86687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120125</v>
+        <v>120657</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.23667734509914</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1997720383274093</v>
+        <v>0.2019727645958034</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2798800244860389</v>
+        <v>0.2811202592536698</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -4610,19 +4610,19 @@
         <v>212352</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>188262</v>
+        <v>190554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>237693</v>
+        <v>239090</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2406428788426602</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.213343619604088</v>
+        <v>0.2159403512092156</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2693592181953665</v>
+        <v>0.2709434065546111</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>22340</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14885</v>
+        <v>14458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35063</v>
+        <v>33454</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04928998001302985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03284085782066556</v>
+        <v>0.03190054319266018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07736123352082797</v>
+        <v>0.07381059454526752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4660,19 +4660,19 @@
         <v>12179</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6856</v>
+        <v>6666</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20409</v>
+        <v>20827</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02837524489522262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01597459676313577</v>
+        <v>0.01553100706497777</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04755147449078431</v>
+        <v>0.04852567265838231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -4681,19 +4681,19 @@
         <v>34519</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24334</v>
+        <v>23573</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47733</v>
+        <v>47542</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0391174256784909</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02757625364478584</v>
+        <v>0.02671314331981946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05409277708303789</v>
+        <v>0.0538755020773478</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>104568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87045</v>
+        <v>87596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122124</v>
+        <v>125289</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2307138263337721</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1920528462367155</v>
+        <v>0.1932681893403624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2694486848876867</v>
+        <v>0.2764321484395135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -4731,19 +4731,19 @@
         <v>78750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64408</v>
+        <v>63792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96795</v>
+        <v>96493</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1834803296413016</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1500641229872408</v>
+        <v>0.1486284523026332</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2255241152028079</v>
+        <v>0.2248197072815282</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>179</v>
@@ -4752,19 +4752,19 @@
         <v>183318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>161117</v>
+        <v>157294</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>208241</v>
+        <v>208059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2077402955284344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1825820188859353</v>
+        <v>0.1782499644901178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.23598394170531</v>
+        <v>0.2357776003704599</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>207700</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>185041</v>
+        <v>182833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232869</v>
+        <v>232132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3040684321811896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2708964332351211</v>
+        <v>0.2676631816105678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3409142960028548</v>
+        <v>0.3398362511203341</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -4877,19 +4877,19 @@
         <v>187537</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165522</v>
+        <v>166512</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211678</v>
+        <v>211656</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3077972323745385</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2716653926253589</v>
+        <v>0.2732903763416504</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3474197773079277</v>
+        <v>0.3473823597814289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>376</v>
@@ -4898,19 +4898,19 @@
         <v>395237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>362928</v>
+        <v>362833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>430681</v>
+        <v>431418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.305826389043181</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2808267283079142</v>
+        <v>0.28075256605354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3332520654011744</v>
+        <v>0.3338229818470456</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>190235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>169110</v>
+        <v>165534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215979</v>
+        <v>214877</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2785003256159177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2475731909310551</v>
+        <v>0.2423382887057584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.31618885070798</v>
+        <v>0.3145756060437094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -4948,19 +4948,19 @@
         <v>186892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165945</v>
+        <v>164937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>211258</v>
+        <v>209958</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3067395151273427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2723599022026389</v>
+        <v>0.2707041475935325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3467305662138703</v>
+        <v>0.344595636177067</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>368</v>
@@ -4969,19 +4969,19 @@
         <v>377128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>346504</v>
+        <v>347024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>410543</v>
+        <v>412672</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.291813797618852</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2681175808445124</v>
+        <v>0.2685204648998111</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3176701098366473</v>
+        <v>0.3193173379187181</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>140305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118896</v>
+        <v>119916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>162842</v>
+        <v>162582</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.205403958818481</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1740615687357839</v>
+        <v>0.1755545534268503</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2383975538174225</v>
+        <v>0.2380165439747854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -5019,19 +5019,19 @@
         <v>105498</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85937</v>
+        <v>86272</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>125601</v>
+        <v>123697</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1731497612321058</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.141045040605616</v>
+        <v>0.1415956031810531</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2061438779387376</v>
+        <v>0.2030190507151895</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>235</v>
@@ -5040,19 +5040,19 @@
         <v>245803</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>218416</v>
+        <v>221986</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>275088</v>
+        <v>275401</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1901975961723582</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1690055504776655</v>
+        <v>0.1717686072760743</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2128573714695179</v>
+        <v>0.2130994248877725</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>19424</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12057</v>
+        <v>11318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30125</v>
+        <v>31632</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02843625036838441</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01765073963151087</v>
+        <v>0.01656870930543482</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04410243094206786</v>
+        <v>0.04630828313177635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -5090,19 +5090,19 @@
         <v>20615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12649</v>
+        <v>12987</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32185</v>
+        <v>31889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03383424183441967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02076078866105008</v>
+        <v>0.02131513826265327</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05282483179714577</v>
+        <v>0.05233782231008402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -5111,19 +5111,19 @@
         <v>40039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27581</v>
+        <v>27991</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53342</v>
+        <v>53720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03098115372781203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02134185777676229</v>
+        <v>0.02165923952643448</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04127490815427509</v>
+        <v>0.04156741450365624</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>125406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105527</v>
+        <v>106420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147336</v>
+        <v>149581</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1835910330160273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1544892190113885</v>
+        <v>0.1557968616329573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2156959791004471</v>
+        <v>0.2189827653897385</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>101</v>
@@ -5161,19 +5161,19 @@
         <v>108745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90241</v>
+        <v>90735</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129279</v>
+        <v>128790</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1784792494315933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1481090546398149</v>
+        <v>0.1489206312339408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2121804167664103</v>
+        <v>0.2113784400422832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>218</v>
@@ -5182,19 +5182,19 @@
         <v>234151</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>204797</v>
+        <v>207693</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>261531</v>
+        <v>268924</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1811810634377967</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1584680943364538</v>
+        <v>0.16070855477285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.202367426412259</v>
+        <v>0.208088109568616</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>183904</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160657</v>
+        <v>158840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210959</v>
+        <v>204880</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.270416046075398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2362336233683822</v>
+        <v>0.2335617150092586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3101984335753199</v>
+        <v>0.3012591288967826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -5307,19 +5307,19 @@
         <v>211233</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>187427</v>
+        <v>185821</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>238538</v>
+        <v>235600</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.298447845834835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2648135069870975</v>
+        <v>0.2625445013694418</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3370267472996599</v>
+        <v>0.3328762295712415</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>368</v>
@@ -5328,19 +5328,19 @@
         <v>395137</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>361190</v>
+        <v>361172</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>432670</v>
+        <v>430402</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2847116143933793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2602519487253023</v>
+        <v>0.2602386356133383</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3117555005853398</v>
+        <v>0.3101218993231217</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>173264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151694</v>
+        <v>152475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197996</v>
+        <v>198579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2547708762705757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2230540881839511</v>
+        <v>0.224202055312926</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2911368998242634</v>
+        <v>0.2919938639710002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>170</v>
@@ -5378,19 +5378,19 @@
         <v>181984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158583</v>
+        <v>160502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206443</v>
+        <v>209521</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.257122783909547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2240604607793351</v>
+        <v>0.2267717124983915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2916801978687567</v>
+        <v>0.296029845538854</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>333</v>
@@ -5399,19 +5399,19 @@
         <v>355248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>323832</v>
+        <v>321672</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>395258</v>
+        <v>390287</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2559702946675046</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2333335498179596</v>
+        <v>0.2317776566958661</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2847986703802581</v>
+        <v>0.2812173854553875</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>128848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>107901</v>
+        <v>108387</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147186</v>
+        <v>150887</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1894603253243574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.158659339994822</v>
+        <v>0.1593737862926606</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2164250070041349</v>
+        <v>0.2218668675478417</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -5449,19 +5449,19 @@
         <v>123681</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>103275</v>
+        <v>104421</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>143922</v>
+        <v>146653</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1747476507343422</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1459163290843178</v>
+        <v>0.1475348978776199</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2033452002004872</v>
+        <v>0.2072040831342794</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>245</v>
@@ -5470,19 +5470,19 @@
         <v>252529</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>224891</v>
+        <v>227750</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>281604</v>
+        <v>284564</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1819572022089398</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1620430237722963</v>
+        <v>0.1641030650713431</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2029068670133597</v>
+        <v>0.2050396991242374</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>22518</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14838</v>
+        <v>14663</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33475</v>
+        <v>33431</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03311105828988049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02181747575260449</v>
+        <v>0.02156064888603303</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04922296369946716</v>
+        <v>0.04915825466341737</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -5520,19 +5520,19 @@
         <v>25481</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16315</v>
+        <v>16291</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36789</v>
+        <v>37329</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0360015480938909</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02305132676675097</v>
+        <v>0.02301745335313148</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05197895560055649</v>
+        <v>0.05274223742051309</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -5541,19 +5541,19 @@
         <v>47999</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35639</v>
+        <v>36185</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63427</v>
+        <v>63741</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03458514111082917</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02567909379435483</v>
+        <v>0.02607261698064743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04570139351778748</v>
+        <v>0.04592759863109448</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>171544</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149194</v>
+        <v>148672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194421</v>
+        <v>195945</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2522416940397884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2193773039031529</v>
+        <v>0.2186103102526473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2858801086422686</v>
+        <v>0.2881207607941775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>156</v>
@@ -5591,19 +5591,19 @@
         <v>165392</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>143561</v>
+        <v>143810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>189669</v>
+        <v>189616</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2336801714273848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2028358845508186</v>
+        <v>0.2031876565909786</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2679807635764935</v>
+        <v>0.2679055114703903</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>320</v>
@@ -5612,19 +5612,19 @@
         <v>336936</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>306008</v>
+        <v>304402</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>372520</v>
+        <v>370250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2427757476193471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2204911584381938</v>
+        <v>0.2193335691431559</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2684152665724296</v>
+        <v>0.2667800012418196</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>154698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132827</v>
+        <v>132247</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177301</v>
+        <v>178176</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.252127908610344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2164818333450804</v>
+        <v>0.2155367562802525</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2889659526505283</v>
+        <v>0.2903924829238512</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>157</v>
@@ -5737,19 +5737,19 @@
         <v>179071</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155442</v>
+        <v>155856</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203356</v>
+        <v>207533</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2916942940718755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2532044463730402</v>
+        <v>0.2538788298946889</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3312524607214526</v>
+        <v>0.3380579028113108</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>296</v>
@@ -5758,19 +5758,19 @@
         <v>333769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>301011</v>
+        <v>301919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>368270</v>
+        <v>368094</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2719164247674365</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2452289684608151</v>
+        <v>0.2459689234666211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3000237990540435</v>
+        <v>0.2998804875701791</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>130396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>111824</v>
+        <v>110335</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>153158</v>
+        <v>155688</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2125198325209905</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1822512930609116</v>
+        <v>0.1798245689732927</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2496174662958876</v>
+        <v>0.2537421894693348</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -5808,19 +5808,19 @@
         <v>128911</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>108423</v>
+        <v>109517</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>151381</v>
+        <v>152584</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2099877951453555</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1766139831666985</v>
+        <v>0.1783961954952437</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2465886890446586</v>
+        <v>0.2485494072732344</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>226</v>
@@ -5829,19 +5829,19 @@
         <v>259307</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>228913</v>
+        <v>231592</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>290214</v>
+        <v>292744</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2112534731623165</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1864917501578346</v>
+        <v>0.1886747353631427</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.236432822016947</v>
+        <v>0.2384939283060368</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>111863</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>93408</v>
+        <v>93985</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>133685</v>
+        <v>134304</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1823149524096938</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1522378616775899</v>
+        <v>0.1531772719038645</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2178817069294339</v>
+        <v>0.2188892268239089</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>105</v>
@@ -5879,19 +5879,19 @@
         <v>119936</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>100544</v>
+        <v>99873</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>141747</v>
+        <v>144064</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.19536743454707</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1637793888526736</v>
+        <v>0.1626871529015815</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2308956501720235</v>
+        <v>0.2346706604359542</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -5900,19 +5900,19 @@
         <v>231799</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>204269</v>
+        <v>205835</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>263108</v>
+        <v>263611</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1888429496137031</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1664150037275706</v>
+        <v>0.1676904728264861</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2143498930420443</v>
+        <v>0.2147595129896808</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>28031</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18228</v>
+        <v>18259</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40080</v>
+        <v>40643</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04568536571643414</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02970809016746176</v>
+        <v>0.02975938247144674</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06532352266595282</v>
+        <v>0.06624059552754455</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -5950,19 +5950,19 @@
         <v>26296</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17874</v>
+        <v>17185</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37586</v>
+        <v>37910</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04283447642865738</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02911630366128345</v>
+        <v>0.02799293499883819</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06122551301139788</v>
+        <v>0.06175224916407618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -5971,19 +5971,19 @@
         <v>54327</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41146</v>
+        <v>41361</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70897</v>
+        <v>70250</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04425953750202467</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03352122218348148</v>
+        <v>0.03369619518215852</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05775876402117495</v>
+        <v>0.05723169259120705</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>188582</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>163794</v>
+        <v>162583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>214159</v>
+        <v>212611</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3073519407425376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2669535759162807</v>
+        <v>0.2649783964417994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3490388390188834</v>
+        <v>0.346514509757643</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>140</v>
@@ -6021,19 +6021,19 @@
         <v>159685</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>135185</v>
+        <v>136785</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183505</v>
+        <v>182247</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2601159998070416</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2202068201152508</v>
+        <v>0.222813985937137</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2989177585824608</v>
+        <v>0.2968675511829322</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>307</v>
@@ -6042,19 +6042,19 @@
         <v>348267</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>315508</v>
+        <v>314033</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>383347</v>
+        <v>380787</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2837276149545193</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2570395207754081</v>
+        <v>0.2558374222722006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3123068955430769</v>
+        <v>0.3102216730401344</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>106404</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>89182</v>
+        <v>90175</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>125675</v>
+        <v>126225</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2477812695446962</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2076752149879922</v>
+        <v>0.2099887494479747</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2926565708710871</v>
+        <v>0.2939368832187388</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>81</v>
@@ -6167,19 +6167,19 @@
         <v>90622</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73525</v>
+        <v>74954</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109193</v>
+        <v>109967</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2028420071935054</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1645731764977946</v>
+        <v>0.1677711528466737</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2444094514517908</v>
+        <v>0.246143191330433</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>180</v>
@@ -6188,19 +6188,19 @@
         <v>197026</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>175008</v>
+        <v>171987</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>224586</v>
+        <v>224187</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2248671805064391</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1997376840695799</v>
+        <v>0.1962898636911048</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.256320634579786</v>
+        <v>0.2558657526786169</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>79529</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64714</v>
+        <v>64026</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>98908</v>
+        <v>96992</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1851978289136862</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1506972366048976</v>
+        <v>0.1490961694908619</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2303240110067087</v>
+        <v>0.2258628402281418</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -6238,19 +6238,19 @@
         <v>92469</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>75608</v>
+        <v>75038</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>110473</v>
+        <v>110780</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2069773800248804</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1692366821603361</v>
+        <v>0.1679593375723764</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.247274601829778</v>
+        <v>0.2479623444634158</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>157</v>
@@ -6259,19 +6259,19 @@
         <v>171999</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>148268</v>
+        <v>150880</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>197152</v>
+        <v>198571</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1963030083773619</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1692185874425104</v>
+        <v>0.1722005829272255</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.225011059572292</v>
+        <v>0.2266303434502074</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>75542</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>60805</v>
+        <v>59293</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>95441</v>
+        <v>93112</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1759124235135571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1415942742459388</v>
+        <v>0.1380750373786996</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2222508721502804</v>
+        <v>0.2168279969416756</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>72</v>
@@ -6309,19 +6309,19 @@
         <v>80260</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65081</v>
+        <v>63457</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99618</v>
+        <v>97027</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1796489516284927</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1456737788978919</v>
+        <v>0.1420382063344019</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2229773705724114</v>
+        <v>0.2171777318655134</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -6330,19 +6330,19 @@
         <v>155802</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>134165</v>
+        <v>135628</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>179698</v>
+        <v>180739</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1778176425456473</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1531226990960686</v>
+        <v>0.1547933254610164</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2050907875274397</v>
+        <v>0.2062779333610159</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>23197</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14911</v>
+        <v>14866</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33134</v>
+        <v>34690</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05401852635594831</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03472293406213896</v>
+        <v>0.03461866178811099</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07715779639202106</v>
+        <v>0.08078240515603399</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>23</v>
@@ -6380,19 +6380,19 @@
         <v>24037</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15497</v>
+        <v>15692</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>34835</v>
+        <v>35735</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05380256890735364</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03468836925397343</v>
+        <v>0.03512497490567371</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0779731547504353</v>
+        <v>0.07998706661449573</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>45</v>
@@ -6401,19 +6401,19 @@
         <v>47234</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>33820</v>
+        <v>33980</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>60957</v>
+        <v>61276</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05390841177135852</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03859889171460244</v>
+        <v>0.03878210961672013</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0695706461322894</v>
+        <v>0.06993413623216926</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>144756</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>122129</v>
+        <v>122319</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>165611</v>
+        <v>164707</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3370899516721121</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2843988206972425</v>
+        <v>0.2848399035240417</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3856549160736882</v>
+        <v>0.383548790948951</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>143</v>
@@ -6451,19 +6451,19 @@
         <v>159373</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>139475</v>
+        <v>138120</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>180256</v>
+        <v>180429</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3567290922457679</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3121917525658207</v>
+        <v>0.3091593878654686</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4034722044332316</v>
+        <v>0.4038602709363873</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>277</v>
@@ -6472,19 +6472,19 @@
         <v>304129</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>275533</v>
+        <v>274478</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>334090</v>
+        <v>334422</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3471037567991932</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.314467447737136</v>
+        <v>0.3132634130291514</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3812981910256779</v>
+        <v>0.3816770587543963</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>60904</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>45701</v>
+        <v>45669</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>75975</v>
+        <v>76486</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1966016087487017</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1475235601935361</v>
+        <v>0.1474211602931801</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2452508324048017</v>
+        <v>0.2468987080323422</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -6597,19 +6597,19 @@
         <v>58764</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45056</v>
+        <v>46113</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>74964</v>
+        <v>75644</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.166852390051254</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1279303164446071</v>
+        <v>0.1309307731671806</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2128506575658953</v>
+        <v>0.214780543789349</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>110</v>
@@ -6618,19 +6618,19 @@
         <v>119669</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>99630</v>
+        <v>100129</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>143635</v>
+        <v>140853</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.180774157419725</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.150503423581068</v>
+        <v>0.1512577365886437</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2169786313833378</v>
+        <v>0.2127755801050719</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>41864</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29888</v>
+        <v>29684</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57543</v>
+        <v>56965</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1351381578695373</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0964779339841353</v>
+        <v>0.09582054296053831</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1857523778727631</v>
+        <v>0.183884025119</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>54</v>
@@ -6668,19 +6668,19 @@
         <v>57184</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>44905</v>
+        <v>45206</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>72514</v>
+        <v>74006</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.162367197526081</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1275015477431017</v>
+        <v>0.1283560258662106</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2058951792667092</v>
+        <v>0.2101302914517289</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>92</v>
@@ -6689,19 +6689,19 @@
         <v>99048</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>81594</v>
+        <v>81393</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>119241</v>
+        <v>119189</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1496248005031368</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1232575344855887</v>
+        <v>0.1229548663352607</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1801285779828199</v>
+        <v>0.1800491286425279</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>56262</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42457</v>
+        <v>42805</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>72684</v>
+        <v>72975</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1816169489021709</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1370521108182332</v>
+        <v>0.1381768521103272</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2346262566199222</v>
+        <v>0.2355671819401519</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>53</v>
@@ -6739,19 +6739,19 @@
         <v>54090</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>42787</v>
+        <v>41058</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>69085</v>
+        <v>69059</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1535818817929718</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1214878964973445</v>
+        <v>0.1165792868184922</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1961585328136617</v>
+        <v>0.196084732837719</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>104</v>
@@ -6760,19 +6760,19 @@
         <v>110353</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>92748</v>
+        <v>91160</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>134001</v>
+        <v>130251</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1667014761736884</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1401080846548373</v>
+        <v>0.1377079607475206</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2024256858255012</v>
+        <v>0.196760755031283</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>13385</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7006</v>
+        <v>7220</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22571</v>
+        <v>23833</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04320882544599196</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02261598834692063</v>
+        <v>0.02330526721973034</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07286027773750668</v>
+        <v>0.07693484290232651</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>22</v>
@@ -6810,19 +6810,19 @@
         <v>21614</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13853</v>
+        <v>13910</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31334</v>
+        <v>31708</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06136929778033349</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03933331816139221</v>
+        <v>0.03949542471548651</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08896809004379967</v>
+        <v>0.09003023169047425</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -6831,19 +6831,19 @@
         <v>34999</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24006</v>
+        <v>24255</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47590</v>
+        <v>48356</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05287072597878402</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03626399882923904</v>
+        <v>0.036640462466797</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07189001895078045</v>
+        <v>0.07304717703090556</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>137370</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>119659</v>
+        <v>119432</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>156169</v>
+        <v>156768</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4434344590335981</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3862649271225333</v>
+        <v>0.3855298905205361</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5041182766747008</v>
+        <v>0.5060525635655614</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>158</v>
@@ -6881,19 +6881,19 @@
         <v>160539</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>141358</v>
+        <v>142724</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>178887</v>
+        <v>177582</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4558292328493597</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4013683450431925</v>
+        <v>0.4052452704551611</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5079247865116722</v>
+        <v>0.5042208978559917</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>285</v>
@@ -6902,19 +6902,19 @@
         <v>297909</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>272716</v>
+        <v>269904</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>325823</v>
+        <v>323767</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4500288399246657</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4119710753586085</v>
+        <v>0.4077237780583782</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4921963073883775</v>
+        <v>0.4890907584905049</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>52089</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>38493</v>
+        <v>39655</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>67561</v>
+        <v>67203</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2092890244209014</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1546628332844737</v>
+        <v>0.1593292777555204</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2714553779978449</v>
+        <v>0.2700170388480684</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>40</v>
@@ -7027,19 +7027,19 @@
         <v>43657</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>31638</v>
+        <v>32716</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>57598</v>
+        <v>58165</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.113151501571168</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08200179240464406</v>
+        <v>0.08479544655212634</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1492865805019323</v>
+        <v>0.1507536232522763</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>85</v>
@@ -7048,19 +7048,19 @@
         <v>95746</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>77625</v>
+        <v>77710</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>115737</v>
+        <v>117019</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1508493677692258</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1223003683749944</v>
+        <v>0.1224329458356859</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1823458003759705</v>
+        <v>0.1843653807452929</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>27355</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18422</v>
+        <v>17679</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>40531</v>
+        <v>39254</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1099106247900846</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07401732953216443</v>
+        <v>0.0710333879632124</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.162851770076711</v>
+        <v>0.1577180820565012</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>22</v>
@@ -7098,19 +7098,19 @@
         <v>23837</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>15921</v>
+        <v>15276</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>34562</v>
+        <v>34329</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06178167219587347</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0412659843983018</v>
+        <v>0.03959382070793287</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08957985749681009</v>
+        <v>0.08897594773513888</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>46</v>
@@ -7119,19 +7119,19 @@
         <v>51192</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>37669</v>
+        <v>38308</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>66717</v>
+        <v>68205</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0806542077196475</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05934870882351561</v>
+        <v>0.06035474691180873</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1051139388978455</v>
+        <v>0.1074578796860408</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>28906</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19547</v>
+        <v>20166</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>42431</v>
+        <v>42495</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1161405989655078</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0785394648541126</v>
+        <v>0.08102384109288446</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1704831146174871</v>
+        <v>0.1707421109341712</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>47</v>
@@ -7169,19 +7169,19 @@
         <v>51054</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>38830</v>
+        <v>38815</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>65374</v>
+        <v>66490</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1323235819413753</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1006408820919949</v>
+        <v>0.1006020172073122</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1694403304944545</v>
+        <v>0.1723311036540898</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>72</v>
@@ -7190,19 +7190,19 @@
         <v>79960</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>63269</v>
+        <v>63921</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>97585</v>
+        <v>99129</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1259778398333407</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09968185924572308</v>
+        <v>0.1007082375173448</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1537478732631889</v>
+        <v>0.1561804667504867</v>
       </c>
     </row>
     <row r="43">
@@ -7219,19 +7219,19 @@
         <v>13872</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>7317</v>
+        <v>7414</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>22935</v>
+        <v>22485</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05573645623617009</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02940051945605065</v>
+        <v>0.02978760092981524</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09215074981790411</v>
+        <v>0.09034100291676354</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>18</v>
@@ -7240,19 +7240,19 @@
         <v>19938</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>12146</v>
+        <v>11554</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>31093</v>
+        <v>28916</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05167530089749352</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03148076769845182</v>
+        <v>0.02994570891776977</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08058720421713712</v>
+        <v>0.07494698667110733</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>31</v>
@@ -7261,19 +7261,19 @@
         <v>33810</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>23258</v>
+        <v>23701</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>47894</v>
+        <v>46372</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05326777890221862</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03664339280154316</v>
+        <v>0.03734218494783693</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07545724774227533</v>
+        <v>0.07305986623989111</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>126663</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>109753</v>
+        <v>109327</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>143668</v>
+        <v>143040</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5089232955873361</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.440977966431369</v>
+        <v>0.4392689046932982</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.577244931549063</v>
+        <v>0.5747238321547279</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>221</v>
@@ -7311,19 +7311,19 @@
         <v>247340</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>228021</v>
+        <v>225898</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>265010</v>
+        <v>264659</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6410679433940897</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.590995930954999</v>
+        <v>0.5854922557617884</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6868664220176491</v>
+        <v>0.6859552752059683</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>335</v>
@@ -7332,19 +7332,19 @@
         <v>374004</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>346133</v>
+        <v>347546</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>397259</v>
+        <v>400697</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5892508057755674</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5453390227992037</v>
+        <v>0.547565672795855</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6258894935969215</v>
+        <v>0.6313055492536906</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>877146</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>825332</v>
+        <v>826793</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>930464</v>
+        <v>928152</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2566214711546286</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2414624082803541</v>
+        <v>0.2418901201690112</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2722203208633169</v>
+        <v>0.2715439608468019</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>806</v>
@@ -7457,19 +7457,19 @@
         <v>876202</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>825964</v>
+        <v>821064</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>930665</v>
+        <v>932023</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2471700508566633</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2329982187759166</v>
+        <v>0.2316161964137726</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2625336595734075</v>
+        <v>0.2629169303105608</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1627</v>
@@ -7478,19 +7478,19 @@
         <v>1753348</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1685484</v>
+        <v>1680891</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1826966</v>
+        <v>1831772</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2518096478614562</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2420633300098178</v>
+        <v>0.2414037057679536</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.262382441657674</v>
+        <v>0.263072711561843</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>746755</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>695289</v>
+        <v>698304</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>798279</v>
+        <v>798948</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2184738500825009</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2034166253701287</v>
+        <v>0.2042985967137925</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2335478606798885</v>
+        <v>0.2337435413566643</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>751</v>
@@ -7528,19 +7528,19 @@
         <v>802650</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>755403</v>
+        <v>753450</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>855820</v>
+        <v>854571</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2264215385499772</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2130936994304953</v>
+        <v>0.2125425546808726</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2414203654540171</v>
+        <v>0.2410681157690707</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1454</v>
@@ -7549,19 +7549,19 @@
         <v>1549405</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1477829</v>
+        <v>1475166</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1614764</v>
+        <v>1619673</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2225201067602315</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2122406409941893</v>
+        <v>0.211858101780693</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2319067511984522</v>
+        <v>0.2326117766187615</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>652496</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>606239</v>
+        <v>608572</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>699550</v>
+        <v>698988</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1908969179432635</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.177363761748407</v>
+        <v>0.178046439741522</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2046632895391636</v>
+        <v>0.20449892060557</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>592</v>
@@ -7599,19 +7599,19 @@
         <v>636101</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>586848</v>
+        <v>591609</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>682297</v>
+        <v>688577</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.17943948871538</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1655453814189307</v>
+        <v>0.1668884099462006</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1924708142753669</v>
+        <v>0.19424237906746</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1209</v>
@@ -7620,19 +7620,19 @@
         <v>1288597</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1221978</v>
+        <v>1224153</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1359483</v>
+        <v>1360438</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1850638131716481</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1754961231067025</v>
+        <v>0.1758085594475146</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1952441158567439</v>
+        <v>0.1953812777982391</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>142768</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>122256</v>
+        <v>120339</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>169699</v>
+        <v>167321</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.04176873402635096</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.03576768003591569</v>
+        <v>0.03520700314973575</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04964769735147893</v>
+        <v>0.0489521162436926</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>142</v>
@@ -7670,19 +7670,19 @@
         <v>150159</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>128328</v>
+        <v>122910</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>177233</v>
+        <v>174032</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.04235862359764457</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.03620026231651442</v>
+        <v>0.03467187031625167</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04999603155385329</v>
+        <v>0.04909324968638393</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>277</v>
@@ -7691,19 +7691,19 @@
         <v>292926</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>262455</v>
+        <v>261248</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>332492</v>
+        <v>327176</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.04206905337413842</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03769284264538819</v>
+        <v>0.03751958735442912</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04775136047677571</v>
+        <v>0.04698790947155846</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>998889</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>942677</v>
+        <v>946304</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1051765</v>
+        <v>1056905</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.292239026793256</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2757936165180874</v>
+        <v>0.2768545218664882</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3077087267893588</v>
+        <v>0.3092123555930639</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>996</v>
@@ -7741,19 +7741,19 @@
         <v>1079824</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1022643</v>
+        <v>1026895</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1135120</v>
+        <v>1137598</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3046102982803349</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2884799602406357</v>
+        <v>0.2896795221345653</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3202089175665994</v>
+        <v>0.3209080061570607</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1921</v>
@@ -7762,19 +7762,19 @@
         <v>2078712</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1994967</v>
+        <v>2000590</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2157278</v>
+        <v>2168814</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2985373788325259</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2865101545559023</v>
+        <v>0.2873177165521702</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3098206546218644</v>
+        <v>0.3114774922701641</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>92232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75501</v>
+        <v>76031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110771</v>
+        <v>110274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2215365510440411</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1813480906698498</v>
+        <v>0.1826209396438445</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2660657355879466</v>
+        <v>0.2648723151716246</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -8130,19 +8130,19 @@
         <v>102770</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86347</v>
+        <v>86863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120983</v>
+        <v>119593</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2596819517337172</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2181828138185681</v>
+        <v>0.2194871979636533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3057020910303517</v>
+        <v>0.3021883176129454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>192</v>
@@ -8151,19 +8151,19 @@
         <v>195003</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172606</v>
+        <v>171381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>221741</v>
+        <v>217320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2401260147325412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2125462699877257</v>
+        <v>0.2110386153659922</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2730514373774171</v>
+        <v>0.2676074088322526</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>145801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126093</v>
+        <v>125589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166157</v>
+        <v>167309</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3502065159927281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3028688502916383</v>
+        <v>0.301656435461462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3991000489263438</v>
+        <v>0.401866019563332</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -8201,19 +8201,19 @@
         <v>146710</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128519</v>
+        <v>125973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>164368</v>
+        <v>164107</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3707080664810932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3247446553477411</v>
+        <v>0.3183101910879063</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.415326796107049</v>
+        <v>0.4146674377924349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>291</v>
@@ -8222,19 +8222,19 @@
         <v>292511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265216</v>
+        <v>268135</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>319238</v>
+        <v>321817</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3601975718335587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3265862174470923</v>
+        <v>0.3301815467452598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3931086892808882</v>
+        <v>0.3962848144905416</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>83136</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66829</v>
+        <v>67291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100520</v>
+        <v>100930</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1996882549929848</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1605191473273451</v>
+        <v>0.1616280296570446</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2414426700148159</v>
+        <v>0.2424279913903707</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>83</v>
@@ -8272,19 +8272,19 @@
         <v>82724</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>67885</v>
+        <v>68478</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99381</v>
+        <v>98605</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2090284255667177</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1715337631690436</v>
+        <v>0.17303061290172</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2511170949568806</v>
+        <v>0.249155696444276</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>160</v>
@@ -8293,19 +8293,19 @@
         <v>165860</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143342</v>
+        <v>143625</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>189574</v>
+        <v>189072</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2042400163740573</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.17651069210984</v>
+        <v>0.1768592104198816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2334407268295233</v>
+        <v>0.2328232674264049</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>26169</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17271</v>
+        <v>18014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37308</v>
+        <v>37061</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06285702085021218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04148456835104518</v>
+        <v>0.04326747798256286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08961187568256906</v>
+        <v>0.08901764352370005</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -8343,19 +8343,19 @@
         <v>16740</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10263</v>
+        <v>9969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26810</v>
+        <v>25877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04229949195206183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.025932532875967</v>
+        <v>0.02518923456827413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06774486518658014</v>
+        <v>0.06538549711479066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -8364,19 +8364,19 @@
         <v>42910</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31523</v>
+        <v>31558</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57692</v>
+        <v>56566</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05283868495471624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03881679606007819</v>
+        <v>0.03886038274787973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07104131493450899</v>
+        <v>0.06965529976109612</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>68991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55209</v>
+        <v>53564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85951</v>
+        <v>85863</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.165711657120034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1326095316512198</v>
+        <v>0.1286577523636513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2064486771523468</v>
+        <v>0.206237331705158</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -8414,19 +8414,19 @@
         <v>46811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35471</v>
+        <v>36260</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62534</v>
+        <v>60826</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1182820642664101</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08962882042287626</v>
+        <v>0.09162219404156274</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.158012455312223</v>
+        <v>0.1536967499414229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -8435,19 +8435,19 @@
         <v>115801</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96456</v>
+        <v>96039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>137047</v>
+        <v>137642</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1425977121051265</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1187755771330721</v>
+        <v>0.11826203941344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1687593163466971</v>
+        <v>0.1694917283174577</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>133059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112633</v>
+        <v>114226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154383</v>
+        <v>154738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2261548979196875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.19143829319207</v>
+        <v>0.1941453529331042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2623977634119992</v>
+        <v>0.2630018905477471</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>174</v>
@@ -8560,19 +8560,19 @@
         <v>174241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152771</v>
+        <v>152076</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196577</v>
+        <v>196475</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.309187452109296</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2710900005869077</v>
+        <v>0.2698561060517061</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3488221863783103</v>
+        <v>0.3486409594609922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>302</v>
@@ -8581,19 +8581,19 @@
         <v>307299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>279012</v>
+        <v>279444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>337397</v>
+        <v>339413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2667770252672667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2422194981246082</v>
+        <v>0.2425946590434353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2929053843741729</v>
+        <v>0.2946561385919587</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>232563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>210392</v>
+        <v>209920</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257595</v>
+        <v>259361</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3952777097445367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3575949400759557</v>
+        <v>0.3567928305505507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.437824156290115</v>
+        <v>0.4408247806561721</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -8631,19 +8631,19 @@
         <v>196990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>176959</v>
+        <v>176284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>219313</v>
+        <v>222998</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.349555860442042</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3140115797133166</v>
+        <v>0.312813022706742</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3891668943055834</v>
+        <v>0.3957064425324521</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>427</v>
@@ -8652,19 +8652,19 @@
         <v>429553</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>398471</v>
+        <v>393917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>463205</v>
+        <v>463044</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3729091483644846</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3459260786742982</v>
+        <v>0.3419726502150596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4021240221315953</v>
+        <v>0.4019840522952268</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>100595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82870</v>
+        <v>82788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>119174</v>
+        <v>119573</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1709775573323257</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1408502152518577</v>
+        <v>0.1407108216387736</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2025546015270069</v>
+        <v>0.203234141175255</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -8702,19 +8702,19 @@
         <v>99913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>84040</v>
+        <v>83697</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118020</v>
+        <v>118288</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1772947183201392</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1491272805617907</v>
+        <v>0.1485196083207834</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2094247435301714</v>
+        <v>0.2099000849258233</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>200</v>
@@ -8723,19 +8723,19 @@
         <v>200508</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>178229</v>
+        <v>175345</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>226166</v>
+        <v>226081</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1740681104367879</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.154727011453844</v>
+        <v>0.152223182977726</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1963419673449545</v>
+        <v>0.19626828003226</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>31901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21901</v>
+        <v>22113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46910</v>
+        <v>44734</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05422050951399191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0372249856401216</v>
+        <v>0.03758454131761959</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07973180552373459</v>
+        <v>0.07603266325034223</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -8773,19 +8773,19 @@
         <v>16146</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10164</v>
+        <v>9798</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25806</v>
+        <v>25477</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02865116345903111</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01803645399383612</v>
+        <v>0.01738580477844774</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04579200654925487</v>
+        <v>0.04520868934921524</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -8794,19 +8794,19 @@
         <v>48047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35096</v>
+        <v>35248</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63151</v>
+        <v>62106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04171118420446255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03046769817709796</v>
+        <v>0.03060001700593339</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05482392896157395</v>
+        <v>0.05391650954227974</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>90235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73593</v>
+        <v>75115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109732</v>
+        <v>110237</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1533693254894583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1250837338048503</v>
+        <v>0.1276702049637667</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1865069852647632</v>
+        <v>0.1873650321813931</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -8844,19 +8844,19 @@
         <v>76254</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61989</v>
+        <v>61414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92262</v>
+        <v>91634</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1353108056694916</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1099989231820287</v>
+        <v>0.1089781814426362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1637179939020488</v>
+        <v>0.1626030210281949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -8865,19 +8865,19 @@
         <v>166489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>144282</v>
+        <v>145020</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>189520</v>
+        <v>190557</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1445345317269984</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1252560534137218</v>
+        <v>0.1258970169207856</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1645284185913295</v>
+        <v>0.1654293747010076</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>175475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>152722</v>
+        <v>152407</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>201071</v>
+        <v>198407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2638401693822542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2296288669364317</v>
+        <v>0.2291558704890462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3023264513815695</v>
+        <v>0.2983199727839503</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -8990,19 +8990,19 @@
         <v>204005</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>180745</v>
+        <v>182539</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>227900</v>
+        <v>227868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3096088311539018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2743075976188971</v>
+        <v>0.2770310625980933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3458726479911451</v>
+        <v>0.3458244054422535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>364</v>
@@ -9011,19 +9011,19 @@
         <v>379480</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>348584</v>
+        <v>348518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414122</v>
+        <v>413071</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2866178937053271</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2632821270997706</v>
+        <v>0.2632324281186852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3127829733316764</v>
+        <v>0.3119887328269493</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>212240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188638</v>
+        <v>187112</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>236467</v>
+        <v>233876</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3191189373586017</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2836323973086947</v>
+        <v>0.2813369010785824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3555460690651093</v>
+        <v>0.3516509352458971</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>235</v>
@@ -9061,19 +9061,19 @@
         <v>232869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>212463</v>
+        <v>208484</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>257749</v>
+        <v>258239</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3534137838955286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3224444529466325</v>
+        <v>0.3164054084605111</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3911732757335776</v>
+        <v>0.3919161376980327</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>440</v>
@@ -9082,19 +9082,19 @@
         <v>445109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>413549</v>
+        <v>411948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>482228</v>
+        <v>482492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3361864794252154</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3123496220923528</v>
+        <v>0.3111406199526122</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3642224347650061</v>
+        <v>0.3644216554290989</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>117326</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>100044</v>
+        <v>98270</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>138879</v>
+        <v>138960</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1764089226348287</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1504243168429056</v>
+        <v>0.1477572944168958</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2088154029520165</v>
+        <v>0.2089375225679914</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>94</v>
@@ -9132,19 +9132,19 @@
         <v>90706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72280</v>
+        <v>73434</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>108872</v>
+        <v>109631</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1376593577046106</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1096963218141279</v>
+        <v>0.1114467228797626</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1652290403589333</v>
+        <v>0.1663812953964248</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -9153,19 +9153,19 @@
         <v>208032</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>183485</v>
+        <v>184147</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>236261</v>
+        <v>237373</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1571243975153662</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1385843534214158</v>
+        <v>0.1390847338336577</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1784457961968209</v>
+        <v>0.1792853721366944</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>34114</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23746</v>
+        <v>24838</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46348</v>
+        <v>49469</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05129371555943221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0357032628663143</v>
+        <v>0.03734514805643388</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06968715715463872</v>
+        <v>0.07438104093714326</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -9203,19 +9203,19 @@
         <v>30245</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20750</v>
+        <v>21755</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42966</v>
+        <v>41827</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04590190364321024</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03149110776542823</v>
+        <v>0.03301610354529703</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06520806214089699</v>
+        <v>0.06347900036361649</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -9224,19 +9224,19 @@
         <v>64360</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50718</v>
+        <v>50725</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81349</v>
+        <v>81120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04861036846830876</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03830669320669246</v>
+        <v>0.03831180462220513</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06144211656117219</v>
+        <v>0.06126899104114903</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>125925</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105840</v>
+        <v>106132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146580</v>
+        <v>148467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1893382550648833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1591382732471877</v>
+        <v>0.1595777724879407</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2203938433149343</v>
+        <v>0.2232311590645248</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -9274,19 +9274,19 @@
         <v>101088</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85118</v>
+        <v>84475</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121293</v>
+        <v>120907</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1534161236027488</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1291788073070625</v>
+        <v>0.1282040817874983</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1840805766978564</v>
+        <v>0.1834950702486629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>223</v>
@@ -9295,19 +9295,19 @@
         <v>227013</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>200885</v>
+        <v>202159</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253816</v>
+        <v>256351</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1714608608857826</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1517268447967227</v>
+        <v>0.1526890641376408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1917047597165919</v>
+        <v>0.1936192379680125</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>157051</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134156</v>
+        <v>135216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180595</v>
+        <v>182081</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2430943101669413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2076562917801032</v>
+        <v>0.2092971923412497</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2795382803159692</v>
+        <v>0.2818384093949339</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>150</v>
@@ -9420,19 +9420,19 @@
         <v>161894</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>140089</v>
+        <v>139410</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>183944</v>
+        <v>185361</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2502458711432232</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2165416839324256</v>
+        <v>0.215492590104252</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2843299840756072</v>
+        <v>0.2865208306217693</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>290</v>
@@ -9441,19 +9441,19 @@
         <v>318944</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>283691</v>
+        <v>288900</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>349741</v>
+        <v>350579</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2466725518140238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2194072919463968</v>
+        <v>0.2234360179543521</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2704908725900901</v>
+        <v>0.2711391018049719</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>196004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>170739</v>
+        <v>172596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220536</v>
+        <v>222055</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3033887285150348</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2642818829674473</v>
+        <v>0.2671559947797642</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3413613408200707</v>
+        <v>0.3437121954403257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>204</v>
@@ -9491,19 +9491,19 @@
         <v>220499</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>194773</v>
+        <v>194300</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>245635</v>
+        <v>244229</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.340834096715293</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3010691115371548</v>
+        <v>0.3003372836270737</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3796888413966796</v>
+        <v>0.3775153227806671</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>379</v>
@@ -9512,19 +9512,19 @@
         <v>416503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>385427</v>
+        <v>383845</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>452879</v>
+        <v>451334</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3221242991728081</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2980904456968224</v>
+        <v>0.2968667323283458</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3502583113983653</v>
+        <v>0.3490632715574403</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>124675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>104041</v>
+        <v>104053</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>146262</v>
+        <v>147353</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1929816920776295</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1610418011856968</v>
+        <v>0.161060495482013</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2263955337643629</v>
+        <v>0.2280840949621633</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>103</v>
@@ -9562,19 +9562,19 @@
         <v>108712</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90805</v>
+        <v>89835</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>130428</v>
+        <v>129591</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1680410123524904</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1403607912374203</v>
+        <v>0.1388614061085195</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2016081610510392</v>
+        <v>0.2003149933537831</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>218</v>
@@ -9583,19 +9583,19 @@
         <v>233388</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>208729</v>
+        <v>203483</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>263547</v>
+        <v>263078</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1805027690571846</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1614317774186436</v>
+        <v>0.1573740455927624</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2038284020141497</v>
+        <v>0.2034652081713446</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>27157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18752</v>
+        <v>18647</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38781</v>
+        <v>39518</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04203523749765878</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02902559231752077</v>
+        <v>0.0288632215411819</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06002825603900417</v>
+        <v>0.06116904983001267</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -9633,19 +9633,19 @@
         <v>36153</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25419</v>
+        <v>25417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49491</v>
+        <v>49573</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0558834052204062</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03929119084058762</v>
+        <v>0.0392883053970012</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07649990953751538</v>
+        <v>0.07662675080109209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -9654,19 +9654,19 @@
         <v>63310</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48537</v>
+        <v>48788</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81049</v>
+        <v>81160</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04896408710764714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03753827818021423</v>
+        <v>0.03773275436266166</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06268370878624514</v>
+        <v>0.06276906906107373</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>141162</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>118691</v>
+        <v>118769</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>163107</v>
+        <v>163058</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2185000317427356</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1837187588869501</v>
+        <v>0.1838392957205055</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2524686764328225</v>
+        <v>0.2523927358246796</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>109</v>
@@ -9704,19 +9704,19 @@
         <v>119681</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>98747</v>
+        <v>99611</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138851</v>
+        <v>141265</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1849956145685872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1526381840318181</v>
+        <v>0.1539731790654383</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2146283985489547</v>
+        <v>0.2183594746306055</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>236</v>
@@ -9725,19 +9725,19 @@
         <v>260842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>232837</v>
+        <v>231582</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>291432</v>
+        <v>292094</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2017362928483363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1800771722432926</v>
+        <v>0.179106003795625</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2253947214127314</v>
+        <v>0.2259066757369676</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>92366</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>75788</v>
+        <v>76280</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>109561</v>
+        <v>110586</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1936589821664996</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.158900506850191</v>
+        <v>0.1599310840963992</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2297108068536437</v>
+        <v>0.2318583170543985</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>102</v>
@@ -9850,19 +9850,19 @@
         <v>120731</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101449</v>
+        <v>102058</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>140857</v>
+        <v>141820</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2440837744925281</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2051005277526698</v>
+        <v>0.2063317063974927</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2847714876401497</v>
+        <v>0.2867187775560154</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>186</v>
@@ -9871,19 +9871,19 @@
         <v>213098</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>185932</v>
+        <v>186474</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>239336</v>
+        <v>242152</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.219330089222892</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1913697718739688</v>
+        <v>0.1919269893179155</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2463358720436177</v>
+        <v>0.2492333401982566</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>135941</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>115135</v>
+        <v>116866</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>156319</v>
+        <v>156520</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.285019892287563</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2413967459163608</v>
+        <v>0.2450259796667391</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3277446511626238</v>
+        <v>0.3281659238825803</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>119</v>
@@ -9921,19 +9921,19 @@
         <v>136650</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>116900</v>
+        <v>117222</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>158526</v>
+        <v>159656</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2762674920752582</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2363387101014844</v>
+        <v>0.2369896938274355</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3204927054994954</v>
+        <v>0.3227780577989039</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>239</v>
@@ -9942,19 +9942,19 @@
         <v>272592</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>242229</v>
+        <v>242557</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>301329</v>
+        <v>302144</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2805640721941902</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.249313171940131</v>
+        <v>0.2496501594990557</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3101414942956355</v>
+        <v>0.3109802590042922</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>72586</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>57565</v>
+        <v>57485</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90031</v>
+        <v>89717</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.152185803332852</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1206937736615155</v>
+        <v>0.1205259842239733</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1887632609227149</v>
+        <v>0.1881043719880557</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>60</v>
@@ -9992,19 +9992,19 @@
         <v>68001</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>53126</v>
+        <v>53880</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84220</v>
+        <v>86447</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1374789744954272</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1074057697075564</v>
+        <v>0.1089288691899319</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.170269176020389</v>
+        <v>0.1747710145670743</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>124</v>
@@ -10013,19 +10013,19 @@
         <v>140587</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>119827</v>
+        <v>119170</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>164752</v>
+        <v>165241</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1446986018962149</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1233314604140261</v>
+        <v>0.1226554641877749</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1695696808292688</v>
+        <v>0.1700737401751774</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>18789</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11661</v>
+        <v>11332</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28351</v>
+        <v>28692</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03939291583348786</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02444984645595226</v>
+        <v>0.02375861875309181</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05944143699753691</v>
+        <v>0.06015603130697033</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -10063,19 +10063,19 @@
         <v>34434</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23855</v>
+        <v>23256</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>48073</v>
+        <v>47500</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06961638052445665</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04822808724239743</v>
+        <v>0.04701719853230424</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09718969355139224</v>
+        <v>0.09603125915617064</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>49</v>
@@ -10084,19 +10084,19 @@
         <v>53223</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39541</v>
+        <v>39656</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>69385</v>
+        <v>69320</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05477958897396332</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04069748498643742</v>
+        <v>0.04081534472863591</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07141435109520916</v>
+        <v>0.07134690623503376</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>157272</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>134754</v>
+        <v>135889</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>178087</v>
+        <v>180321</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3297424063795975</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2825308123332492</v>
+        <v>0.2849104299915399</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3733838392730305</v>
+        <v>0.3780688981436043</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>119</v>
@@ -10134,19 +10134,19 @@
         <v>134813</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>116253</v>
+        <v>112698</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>156130</v>
+        <v>156108</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2725533784123298</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2350297364677841</v>
+        <v>0.2278423006268856</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3156492718663323</v>
+        <v>0.3156058981803563</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>256</v>
@@ -10155,19 +10155,19 @@
         <v>292086</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>259955</v>
+        <v>261910</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>321252</v>
+        <v>321821</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3006276477127396</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.26755777188639</v>
+        <v>0.2695694952350064</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3306472190404864</v>
+        <v>0.331232755811749</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>48098</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>36965</v>
+        <v>35704</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>63542</v>
+        <v>62886</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1443273273475518</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1109204012823319</v>
+        <v>0.1071368835736838</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1906718846586669</v>
+        <v>0.1887037248266563</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>61</v>
@@ -10280,19 +10280,19 @@
         <v>65972</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>51513</v>
+        <v>50722</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>81467</v>
+        <v>82230</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1751076732992725</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1367312350086041</v>
+        <v>0.1346307037799328</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2162362684582274</v>
+        <v>0.2182617594967907</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>108</v>
@@ -10301,19 +10301,19 @@
         <v>114069</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>96638</v>
+        <v>94988</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>133981</v>
+        <v>134451</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1606603166263619</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1361095652039754</v>
+        <v>0.133785281669377</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1887050786948695</v>
+        <v>0.1893659680196211</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>82149</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>67988</v>
+        <v>66804</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>98983</v>
+        <v>97874</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2465061160259727</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2040136897915356</v>
+        <v>0.2004602318703939</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2970192983177639</v>
+        <v>0.2936924868792731</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>97</v>
@@ -10351,19 +10351,19 @@
         <v>105062</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>88129</v>
+        <v>86765</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>123483</v>
+        <v>122801</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2788634151806391</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2339202124368838</v>
+        <v>0.2302985010452537</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3277592173311761</v>
+        <v>0.3259476701657502</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>178</v>
@@ -10372,19 +10372,19 @@
         <v>187211</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>162479</v>
+        <v>164807</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>210731</v>
+        <v>213038</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2636758847158165</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2288427014650938</v>
+        <v>0.2321212007559091</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2968022658010479</v>
+        <v>0.3000517968447431</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>34541</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23603</v>
+        <v>24892</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47310</v>
+        <v>46140</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1036482628646894</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07082658517818112</v>
+        <v>0.07469387760593771</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1419624517042874</v>
+        <v>0.1384527776467604</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>42</v>
@@ -10422,19 +10422,19 @@
         <v>46022</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>34235</v>
+        <v>33222</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>60353</v>
+        <v>61270</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1221549800477522</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09086881148808848</v>
+        <v>0.0881796081228349</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1601943265928813</v>
+        <v>0.1626284841692437</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>76</v>
@@ -10443,19 +10443,19 @@
         <v>80563</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>65235</v>
+        <v>64009</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>98088</v>
+        <v>98841</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1134684908053061</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09187935953213192</v>
+        <v>0.09015362822214956</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.13815085540908</v>
+        <v>0.1392118772716661</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>18634</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10627</v>
+        <v>11495</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28000</v>
+        <v>28626</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05591391695144022</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0318882785704054</v>
+        <v>0.03449261228962586</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08402016633670394</v>
+        <v>0.08589951561400079</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>21</v>
@@ -10493,19 +10493,19 @@
         <v>21892</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13590</v>
+        <v>14345</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>32076</v>
+        <v>34387</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05810672022153231</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03607245509997601</v>
+        <v>0.03807449703072639</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08513808487908342</v>
+        <v>0.09127268806746287</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>39</v>
@@ -10514,19 +10514,19 @@
         <v>40525</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>28930</v>
+        <v>29256</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>54437</v>
+        <v>53727</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05707748516984588</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04074676918248572</v>
+        <v>0.04120570854915118</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07667182355135013</v>
+        <v>0.07567154213697047</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>149832</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>131016</v>
+        <v>130943</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>167779</v>
+        <v>168463</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4496043768103459</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3931423021353394</v>
+        <v>0.3929239447715834</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5034581735093372</v>
+        <v>0.5055085505882332</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>132</v>
@@ -10564,19 +10564,19 @@
         <v>137803</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>119650</v>
+        <v>119610</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>155896</v>
+        <v>155470</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3657672112508039</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.317584999954804</v>
+        <v>0.3174792709615498</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4137912568424471</v>
+        <v>0.4126615890912851</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>276</v>
@@ -10585,19 +10585,19 @@
         <v>287635</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>262062</v>
+        <v>262226</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>313760</v>
+        <v>316647</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4051178226826696</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3690988098032651</v>
+        <v>0.3693302150721823</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4419126103658199</v>
+        <v>0.4459790973200004</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>25445</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17182</v>
+        <v>17809</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>35031</v>
+        <v>36201</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09934517398856872</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0670840589610152</v>
+        <v>0.06953189588233513</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1367706485440422</v>
+        <v>0.1413385758534916</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>33</v>
@@ -10710,19 +10710,19 @@
         <v>47517</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>33168</v>
+        <v>35227</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>64339</v>
+        <v>66240</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1195324404311176</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08343575109925536</v>
+        <v>0.08861669761945599</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1618501732302521</v>
+        <v>0.1666311405425981</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>63</v>
@@ -10731,19 +10731,19 @@
         <v>72962</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>57096</v>
+        <v>55650</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>92586</v>
+        <v>91820</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1116221465202846</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08734952800014524</v>
+        <v>0.08513766239105991</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1416434190489713</v>
+        <v>0.140471453525152</v>
       </c>
     </row>
     <row r="41">
@@ -10760,19 +10760,19 @@
         <v>58318</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>48266</v>
+        <v>46522</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>71578</v>
+        <v>70758</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2276889000148609</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.188441699262971</v>
+        <v>0.1816319353605333</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2794598827020153</v>
+        <v>0.2762551722526894</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>59</v>
@@ -10781,19 +10781,19 @@
         <v>78961</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>62010</v>
+        <v>61904</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>98916</v>
+        <v>100302</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1986335289238105</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1559905872797912</v>
+        <v>0.155724457029846</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2488314065637509</v>
+        <v>0.2523188357062591</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>129</v>
@@ -10802,19 +10802,19 @@
         <v>137279</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>116375</v>
+        <v>115756</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>159767</v>
+        <v>161626</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2100187516667026</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1780379226654475</v>
+        <v>0.1770913967498353</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2444219799661212</v>
+        <v>0.2472663778847597</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>28130</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>20304</v>
+        <v>20302</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>38861</v>
+        <v>38943</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1098255548423603</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07927270988434724</v>
+        <v>0.07926227973926574</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.151722196156195</v>
+        <v>0.1520450065069662</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>25</v>
@@ -10852,19 +10852,19 @@
         <v>33408</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>21645</v>
+        <v>22601</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>46679</v>
+        <v>48091</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08403987767952516</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05444925357443453</v>
+        <v>0.05685434064036745</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1174245993823707</v>
+        <v>0.1209762659380518</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>59</v>
@@ -10873,19 +10873,19 @@
         <v>61537</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>48179</v>
+        <v>47247</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>78905</v>
+        <v>77201</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09414388485792974</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07370787927265295</v>
+        <v>0.07228170274851482</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1207142288515361</v>
+        <v>0.1181075157475423</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>12246</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>6682</v>
+        <v>7305</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>19003</v>
+        <v>19739</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04781280405773203</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02608818799336799</v>
+        <v>0.02852116872027385</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07419059967632699</v>
+        <v>0.07706497476536339</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>13</v>
@@ -10923,19 +10923,19 @@
         <v>17488</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>9962</v>
+        <v>10037</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>30721</v>
+        <v>28744</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04399329848902692</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0250606313517514</v>
+        <v>0.02524977731793537</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07728061661825751</v>
+        <v>0.07230784482248943</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>28</v>
@@ -10944,19 +10944,19 @@
         <v>29735</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20206</v>
+        <v>20481</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>41886</v>
+        <v>43684</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04548995539047048</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0309121892757128</v>
+        <v>0.03133242760426969</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06408037252613512</v>
+        <v>0.066830083781469</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>131991</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>116803</v>
+        <v>117608</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>145565</v>
+        <v>147557</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5153275670964781</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4560289106608127</v>
+        <v>0.4591718026088173</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5683234649212128</v>
+        <v>0.576101004380882</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>169</v>
@@ -10994,19 +10994,19 @@
         <v>220148</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>196074</v>
+        <v>197778</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>241310</v>
+        <v>243579</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5538008544765197</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4932406496059169</v>
+        <v>0.4975276303918141</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6070358590459242</v>
+        <v>0.6127423998685868</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>321</v>
@@ -11015,19 +11015,19 @@
         <v>352139</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>324986</v>
+        <v>323795</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>377630</v>
+        <v>378415</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5387252615646126</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.497184448720163</v>
+        <v>0.4953625455637458</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5777227507688679</v>
+        <v>0.5789239053249537</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>723727</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>674379</v>
+        <v>674055</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>771320</v>
+        <v>774220</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2139840278683497</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1993933926332644</v>
+        <v>0.1992977546135334</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2280559047406883</v>
+        <v>0.2289135462101047</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>826</v>
@@ -11140,19 +11140,19 @@
         <v>877130</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>818856</v>
+        <v>827529</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>930126</v>
+        <v>926313</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.248193781604803</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.231704444923915</v>
+        <v>0.2341586509639744</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.263189530051237</v>
+        <v>0.2621107147652908</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1505</v>
@@ -11161,19 +11161,19 @@
         <v>1600856</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1532383</v>
+        <v>1529335</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1679668</v>
+        <v>1684846</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2314645804527136</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2215641339287224</v>
+        <v>0.2211234215427885</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2428597062923109</v>
+        <v>0.243608394050759</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>1063017</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1007760</v>
+        <v>1003647</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1116359</v>
+        <v>1118917</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3143019249104276</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2979642051243985</v>
+        <v>0.2967480434688293</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3300736077513849</v>
+        <v>0.3308298459257099</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1070</v>
@@ -11211,19 +11211,19 @@
         <v>1117741</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1065291</v>
+        <v>1066373</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1174114</v>
+        <v>1177700</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3162772515289651</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3014359369199781</v>
+        <v>0.3017422862982675</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3322287407073755</v>
+        <v>0.3332433743872321</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2083</v>
@@ -11232,19 +11232,19 @@
         <v>2180757</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2099408</v>
+        <v>2105631</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2253878</v>
+        <v>2261323</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3153112803443384</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3035491582755914</v>
+        <v>0.3044488451413792</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3258836669987919</v>
+        <v>0.3269601469517224</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>560990</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>521450</v>
+        <v>519341</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>607092</v>
+        <v>610665</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1658676890942804</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1541768800405788</v>
+        <v>0.1535533311541437</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1794987345042345</v>
+        <v>0.1805552008892674</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>511</v>
@@ -11282,19 +11282,19 @@
         <v>529486</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>485321</v>
+        <v>487273</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>571532</v>
+        <v>573928</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1498240207654416</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1373270364400139</v>
+        <v>0.1378792451366715</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1617214455674663</v>
+        <v>0.1623993051194841</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1043</v>
@@ -11303,19 +11303,19 @@
         <v>1090476</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1028092</v>
+        <v>1036049</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1158593</v>
+        <v>1151635</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1576696707738645</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1486497252907846</v>
+        <v>0.1498001820682055</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1675186637381689</v>
+        <v>0.1665124880434002</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>169010</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>145808</v>
+        <v>144729</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>196584</v>
+        <v>195562</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.04997109879541174</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04311098397508239</v>
+        <v>0.04279205970498177</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05812379841687464</v>
+        <v>0.05782171683701695</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>164</v>
@@ -11353,19 +11353,19 @@
         <v>173099</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>149392</v>
+        <v>146690</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>200774</v>
+        <v>200746</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.04898039931428441</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04227222785225608</v>
+        <v>0.04150747751076928</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.05681139950954796</v>
+        <v>0.05680343528615499</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>327</v>
@@ -11374,19 +11374,19 @@
         <v>342109</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>308149</v>
+        <v>304191</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>384161</v>
+        <v>379570</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.04946486965068993</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.04455459949168403</v>
+        <v>0.04398240464656292</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.05554510406115446</v>
+        <v>0.0548812852390192</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>865409</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>815389</v>
+        <v>815782</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>917297</v>
+        <v>919278</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2558752593315306</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2410857388365783</v>
+        <v>0.2412021389209874</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.271217033563446</v>
+        <v>0.271802644876958</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>758</v>
@@ -11424,19 +11424,19 @@
         <v>836597</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>783683</v>
+        <v>789334</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>887559</v>
+        <v>892776</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2367245467865059</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2217519588832134</v>
+        <v>0.2233510511623699</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2511447394336224</v>
+        <v>0.252620987601938</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1590</v>
@@ -11445,19 +11445,19 @@
         <v>1702006</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1631285</v>
+        <v>1627512</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1770997</v>
+        <v>1774768</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2460895987783936</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2358641827525747</v>
+        <v>0.2353185884790703</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2560647854715309</v>
+        <v>0.2566101224607316</v>
       </c>
     </row>
     <row r="51">
